--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints4.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints4.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>5.424912332726926e-08</v>
+        <v>5.327346143807684e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>5.413937073115336e-08</v>
+        <v>5.464196323996509e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>5.457847141654542e-08</v>
+        <v>5.621648996931914e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>5.552589764149139e-08</v>
+        <v>5.798625074247338e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>5.694112166403858e-08</v>
+        <v>5.994045467576827e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>5.878361574223411e-08</v>
+        <v>6.206831088554238e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>6.101285213412826e-08</v>
+        <v>6.435902848813733e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>6.358830309776228e-08</v>
+        <v>6.680181659988566e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>6.646944089118591e-08</v>
+        <v>6.93858843371288e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>6.96157377724506e-08</v>
+        <v>7.210044081620895e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>7.298666599959514e-08</v>
+        <v>7.493469515345752e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>7.654169783067062e-08</v>
+        <v>7.78778564652165e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>8.024030552372908e-08</v>
+        <v>8.091913386782851e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>8.40419613368079e-08</v>
+        <v>8.404773647762411e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>8.790613752795891e-08</v>
+        <v>8.725287341094571e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>9.17923063552293e-08</v>
+        <v>9.052375378413191e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>9.56599400766712e-08</v>
+        <v>9.384958671352564e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>9.946851095032153e-08</v>
+        <v>9.72195813154567e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.031785849845026e-07</v>
+        <v>1.006229361256374e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.067727232204019e-07</v>
+        <v>1.040486369060578e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.102538568602583e-07</v>
+        <v>1.074854723635218e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.136256852820977e-07</v>
+        <v>1.109222237737317e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.16891907863941e-07</v>
+        <v>1.143476724123855e-07</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.200562239838132e-07</v>
+        <v>1.177505995551855e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.231223330197269e-07</v>
+        <v>1.211197864778206e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.260939343497076e-07</v>
+        <v>1.244440144559934e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.289747273517797e-07</v>
+        <v>1.277120647654059e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.317684114039567e-07</v>
+        <v>1.309127186817474e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.344786858842634e-07</v>
+        <v>1.340347574807202e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.371092501707208e-07</v>
+        <v>1.370669624380222e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.396638036413532e-07</v>
+        <v>1.39998114829355e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.421460456741747e-07</v>
+        <v>1.428169959304089e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.445596756472099e-07</v>
+        <v>1.455123870168857e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.469083929384827e-07</v>
+        <v>1.480730693644866e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.491942233024304e-07</v>
+        <v>1.504884598582061e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.514079913669794e-07</v>
+        <v>1.527522293505015e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.53535924576939e-07</v>
+        <v>1.548597946135197e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.555642363606126e-07</v>
+        <v>1.568065777425895e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.574791401463117e-07</v>
+        <v>1.585880008330483e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.592668493623455e-07</v>
+        <v>1.601994859802304e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.609135774370248e-07</v>
+        <v>1.616364552794719e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.624055377986543e-07</v>
+        <v>1.628943308261036e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.637289438755451e-07</v>
+        <v>1.639685347154616e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.648700090960075e-07</v>
+        <v>1.648544890428815e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.658149468883473e-07</v>
+        <v>1.655476159036954e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.665499706808752e-07</v>
+        <v>1.660433373932388e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.670612939019e-07</v>
+        <v>1.663370756068462e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.673351299797309e-07</v>
+        <v>1.66424252639852e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.67357692342676e-07</v>
+        <v>1.663002905875901e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.671172273862854e-07</v>
+        <v>1.659620697614737e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.666281172966514e-07</v>
+        <v>1.654252172727788e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.659228758404736e-07</v>
+        <v>1.647183657361857e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.650343815112633e-07</v>
+        <v>1.638704093792961e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.639955128025305e-07</v>
+        <v>1.629102424297111e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.628391482077897e-07</v>
+        <v>1.618667591150357e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.615981662205513e-07</v>
+        <v>1.607688536628711e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.603054453343269e-07</v>
+        <v>1.596454203008198e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.589938640426265e-07</v>
+        <v>1.585253532564827e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.576963008389653e-07</v>
+        <v>1.574375467574653e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.564456342168532e-07</v>
+        <v>1.564108950313683e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.552747426698002e-07</v>
+        <v>1.554742923057932e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.542155609663106e-07</v>
+        <v>1.546557151307855e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.532768143566985e-07</v>
+        <v>1.539605711366751e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.524431510253638e-07</v>
+        <v>1.533708554312567e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.516981018488958e-07</v>
+        <v>1.528674766529695e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.510251977038865e-07</v>
+        <v>1.524313434402544e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.504079694669248e-07</v>
+        <v>1.520433644315506e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.498299480146003e-07</v>
+        <v>1.516844482652973e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.492746642235044e-07</v>
+        <v>1.513355035799351e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.487256489702264e-07</v>
+        <v>1.509774390139032e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.481664331313558e-07</v>
+        <v>1.50591163205641e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.475805475834841e-07</v>
+        <v>1.50157584793589e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.469515232032006e-07</v>
+        <v>1.496576124161867e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.462628908670955e-07</v>
+        <v>1.490721547118737e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.454981814517577e-07</v>
+        <v>1.483821203190886e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.446409258337794e-07</v>
+        <v>1.475684178762732e-07</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.436746548897496e-07</v>
+        <v>1.466119560218663e-07</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.425828994962571e-07</v>
+        <v>1.45493643394306e-07</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.413491905298947e-07</v>
+        <v>1.44194388632035e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.39957058867251e-07</v>
+        <v>1.426951003734916e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.383900353849164e-07</v>
+        <v>1.409766872571156e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.366316509594783e-07</v>
+        <v>1.39020057921344e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.346654364675316e-07</v>
+        <v>1.368061210046217e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.324749227856641e-07</v>
+        <v>1.34315785145386e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.300436407904625e-07</v>
+        <v>1.315299589820727e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.273551213585234e-07</v>
+        <v>1.284295511531289e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.243928953664337e-07</v>
+        <v>1.249954702969908e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.211547229567342e-07</v>
+        <v>1.2122827064787e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.177123300275878e-07</v>
+        <v>1.172306270511866e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.141614006829772e-07</v>
+        <v>1.131382921814309e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.105976313186465e-07</v>
+        <v>1.090870356836817e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.071167183303397e-07</v>
+        <v>1.05212627203018e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.038143581138143e-07</v>
+        <v>1.016508363845341e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.007862470648142e-07</v>
+        <v>9.853743287330859e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>9.812808157908463e-08</v>
+        <v>9.600818631442258e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>9.59355580523811e-08</v>
+        <v>9.419886635296675e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>9.430437288044831e-08</v>
+        <v>9.32452426340213e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>9.333022245903467e-08</v>
+        <v>9.328308480267012e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>9.310880318388888e-08</v>
+        <v>9.444816250399947e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>9.373581145076006e-08</v>
+        <v>9.687624538309036e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>4.631625626862071e-08</v>
+        <v>4.659699588230538e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>6.007877847765008e-08</v>
+        <v>6.062506834870548e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>5.751790070573191e-08</v>
+        <v>5.89217309015384e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>7.929197464570364e-08</v>
+        <v>7.988164871282359e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>9.998983311510998e-08</v>
+        <v>9.953604190372101e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.023616415553338e-07</v>
+        <v>1.019597819497167e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.687145950996344e-07</v>
+        <v>1.693492204354159e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>4.478661323062941e-07</v>
+        <v>4.494517856700134e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>9.062644136988648e-07</v>
+        <v>9.087007252030456e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.131427394230572e-06</v>
+        <v>1.135660971613091e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.200032968186186e-06</v>
+        <v>1.202593849164976e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.208980582049209e-06</v>
+        <v>1.206883792856494e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.172193309740969e-06</v>
+        <v>1.169131430952344e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.116479623143236e-06</v>
+        <v>1.11610761945167e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.074197165967227e-06</v>
+        <v>1.076103722218641e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04886579023226e-06</v>
+        <v>1.049555750726212e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.039927754136806e-06</v>
+        <v>1.036846663926805e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.062409001169836e-06</v>
+        <v>1.063360555323926e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.042135071409323e-06</v>
+        <v>1.044772029826175e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.018852500742839e-06</v>
+        <v>1.017473267350762e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.03410839455719e-06</v>
+        <v>1.031541355753574e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.031941440761721e-06</v>
+        <v>1.029924259617427e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.017300833974386e-06</v>
+        <v>1.016343835540191e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.002847625259589e-06</v>
+        <v>1.002657176950036e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>9.868679298541297e-07</v>
+        <v>9.871132526436593e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>9.660905881545527e-07</v>
+        <v>9.664868272636868e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>9.373130919541127e-07</v>
+        <v>9.376249310335664e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>8.980334000600891e-07</v>
+        <v>8.981119375964646e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>8.461589793839898e-07</v>
+        <v>8.45963287440846e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>7.796973926263849e-07</v>
+        <v>7.792948049107666e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>7.00346838040405e-07</v>
+        <v>6.999136083406278e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>6.145995604622122e-07</v>
+        <v>6.144217179426658e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>5.292681768479254e-07</v>
+        <v>5.297415832059244e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>4.50350151407203e-07</v>
+        <v>4.5190114237296e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.784671123161923e-07</v>
+        <v>3.810291377231232e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.120726929290783e-07</v>
+        <v>3.14877136283598e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.510095958211106e-07</v>
+        <v>2.530076990494494e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.979999401146387e-07</v>
+        <v>1.987347881540973e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.559929445087861e-07</v>
+        <v>1.556865238302416e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.253921667109809e-07</v>
+        <v>1.245361207167234e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.042664828866536e-07</v>
+        <v>1.032467847077812e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>9.059836120902355e-08</v>
+        <v>8.968142261604849e-08</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>8.237026985132584e-08</v>
+        <v>8.170294125417483e-08</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>7.756467698677685e-08</v>
+        <v>7.717424743479072e-08</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>7.424224357590851e-08</v>
+        <v>7.404202922140952e-08</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>7.1537816993473e-08</v>
+        <v>7.140393353902911e-08</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>6.936673954136942e-08</v>
+        <v>6.919388446235911e-08</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>6.766192323543167e-08</v>
+        <v>6.736463149312978e-08</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>6.635628009149459e-08</v>
+        <v>6.586892413307213e-08</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>6.538272212539458e-08</v>
+        <v>6.465951188391898e-08</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>6.467416135296633e-08</v>
+        <v>6.368914424740125e-08</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>6.416350979004514e-08</v>
+        <v>6.291057072525046e-08</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>6.37836794524661e-08</v>
+        <v>6.22765408191979e-08</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>6.347641148521909e-08</v>
+        <v>6.174576969777649e-08</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>6.322718654325498e-08</v>
+        <v>6.130652644564057e-08</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>6.303500520587914e-08</v>
+        <v>6.095621529117869e-08</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>6.28988720104391e-08</v>
+        <v>6.069224313714987e-08</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>6.281779149428213e-08</v>
+        <v>6.051201688631277e-08</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>6.279076819475557e-08</v>
+        <v>6.041294344142612e-08</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>6.281680664920684e-08</v>
+        <v>6.039242970524871e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>6.289491139498327e-08</v>
+        <v>6.044788258053933e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>6.30240869694322e-08</v>
+        <v>6.057670897005669e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>6.32033379099011e-08</v>
+        <v>6.077631577655972e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>6.343166875373716e-08</v>
+        <v>6.104410990280697e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>6.370808403828787e-08</v>
+        <v>6.137749825155732e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>6.403158830090049e-08</v>
+        <v>6.17738877255695e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>6.440118607892263e-08</v>
+        <v>6.22306852276025e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>6.48158819097013e-08</v>
+        <v>6.274529766041469e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>6.527468033058403e-08</v>
+        <v>6.331513192676507e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>6.577658587891839e-08</v>
+        <v>6.393759492941263e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>6.632060309205132e-08</v>
+        <v>6.461009357111564e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>6.690573650733038e-08</v>
+        <v>6.53300347546331e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>6.753099066210296e-08</v>
+        <v>6.609482538272379e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>6.819537009371668e-08</v>
+        <v>6.690187235814682e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>6.889787933951834e-08</v>
+        <v>6.774858258366029e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>6.963752293685561e-08</v>
+        <v>6.863236296202334e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>7.041330542307618e-08</v>
+        <v>6.955062039599509e-08</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>7.122423133552669e-08</v>
+        <v>7.050076178833348e-08</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>7.206930521155489e-08</v>
+        <v>7.148019404179776e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>7.294753158850809e-08</v>
+        <v>7.248632405914661e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>7.385791500373414e-08</v>
+        <v>7.351655874313935e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>7.479945999457953e-08</v>
+        <v>7.456830499653377e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>7.577117109839206e-08</v>
+        <v>7.563896972208913e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>7.677205285251906e-08</v>
+        <v>7.672595982256418e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>7.780110979430836e-08</v>
+        <v>7.782668220071818e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>7.885734646110641e-08</v>
+        <v>7.893854375930891e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>7.993976739026105e-08</v>
+        <v>8.005895140109567e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>8.104737764300881e-08</v>
+        <v>8.118531274715228e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>8.21810541542368e-08</v>
+        <v>8.231760198304823e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>8.334775002641472e-08</v>
+        <v>8.346412445280417e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>8.455564908474405e-08</v>
+        <v>8.463487296971282e-08</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>8.581293515442465e-08</v>
+        <v>8.583984034706535e-08</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>8.712779206065795e-08</v>
+        <v>8.708901939815445e-08</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>8.850840362864487e-08</v>
+        <v>8.839240293627235e-08</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>8.996295368358705e-08</v>
+        <v>8.975998377471189e-08</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>9.149962605068403e-08</v>
+        <v>9.120175472676402e-08</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>9.312660455513746e-08</v>
+        <v>9.272770860572157e-08</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>9.48520730221482e-08</v>
+        <v>9.434783822487671e-08</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>9.668421527691801e-08</v>
+        <v>9.607213639752248e-08</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>9.863121514464625e-08</v>
+        <v>9.79105959369495e-08</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.007012564505345e-07</v>
+        <v>9.987320965645076e-08</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.029025230197849e-07</v>
+        <v>1.019699703693194e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.052431986775962e-07</v>
+        <v>1.042108708888458e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.077314672491704e-07</v>
+        <v>1.06605904028323e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.103755125597084e-07</v>
+        <v>1.091650626010432e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.131835184344124e-07</v>
+        <v>1.118983394203e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.161636686984808e-07</v>
+        <v>1.14815727299383e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.193241471771158e-07</v>
+        <v>1.179272190515857e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.226731376955198e-07</v>
+        <v>1.212428074902017e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.262188240788907e-07</v>
+        <v>1.247724854285204e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.29969390152431e-07</v>
+        <v>1.285262456798354e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.339330197413416e-07</v>
+        <v>1.325140810574388e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.381178966708252e-07</v>
+        <v>1.367459843746248e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.425322047660791e-07</v>
+        <v>1.412319484446819e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.471914280074953e-07</v>
+        <v>1.459886228236731e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.521500541483401e-07</v>
+        <v>1.510682231722593e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.5747554384136e-07</v>
+        <v>1.565347946605524e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.632353664758065e-07</v>
+        <v>1.624523904251621e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.694969914409288e-07</v>
+        <v>1.688850636026958e-07</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.763278881259795e-07</v>
+        <v>1.75896867329764e-07</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.837955259202017e-07</v>
+        <v>1.83551854742968e-07</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.919673742128475e-07</v>
+        <v>1.919140789789183e-07</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.009109023931705e-07</v>
+        <v>2.010475931742264e-07</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.106935798504118e-07</v>
+        <v>2.110164504654917e-07</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.213828759738248e-07</v>
+        <v>2.218847039893254e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.330462601526584e-07</v>
+        <v>2.337164068823349e-07</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>2.457512017761681e-07</v>
+        <v>2.465756122811339e-07</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>2.595651702335915e-07</v>
+        <v>2.605263733223178e-07</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>2.745556349141835e-07</v>
+        <v>2.756327431425001e-07</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>2.907900652072011e-07</v>
+        <v>2.919587748782954e-07</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>3.083359305018787e-07</v>
+        <v>3.095685216662967e-07</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>3.273052313451585e-07</v>
+        <v>3.285710873526277e-07</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>3.482830049117452e-07</v>
+        <v>3.495541314018181e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>3.721395331277562e-07</v>
+        <v>3.733938860239267e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>3.99749031395285e-07</v>
+        <v>4.009705627974539e-07</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.319857151164561e-07</v>
+        <v>4.331643733009315e-07</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>4.697237996933839e-07</v>
+        <v>4.708555291128809e-07</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>5.138375005282046e-07</v>
+        <v>5.149242418118454e-07</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>5.65201033022993e-07</v>
+        <v>5.662507229763067e-07</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>6.246886125798823e-07</v>
+        <v>6.257151841848055e-07</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>6.931744546010198e-07</v>
+        <v>6.941978370158961e-07</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>7.715327744884588e-07</v>
+        <v>7.725788930480386e-07</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>8.606377876443426e-07</v>
+        <v>8.617385638597836e-07</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>9.613637094708336e-07</v>
+        <v>9.625570610297009e-07</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.074372402531529e-06</v>
+        <v>1.07570145612807e-06</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.197724483510601e-06</v>
+        <v>1.199227932299802e-06</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.327737135755294e-06</v>
+        <v>1.329442776628157e-06</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.460695410011358e-06</v>
+        <v>1.462620024482715e-06</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.592884357024361e-06</v>
+        <v>1.595033711232872e-06</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.720589027540052e-06</v>
+        <v>1.722957872248207e-06</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.840094472304121e-06</v>
+        <v>1.842666542898237e-06</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.947685742062302e-06</v>
+        <v>1.950433758552526e-06</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.039647887560187e-06</v>
+        <v>2.042533554580496e-06</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.112265959543516e-06</v>
+        <v>2.115239966351715e-06</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.161825008757995e-06</v>
+        <v>2.164827029235718e-06</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.184610085949268e-06</v>
+        <v>2.187568778601978e-06</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.176906241863053e-06</v>
+        <v>2.179739249820041e-06</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.135344504262394e-06</v>
+        <v>2.137959877799448e-06</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.06147796365325e-06</v>
+        <v>2.063794397796473e-06</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.960522504465511e-06</v>
+        <v>1.962484398972513e-06</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.83778122014821e-06</v>
+        <v>1.839359038077612e-06</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.698557204150341e-06</v>
+        <v>1.69974747186177e-06</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.548153549921093e-06</v>
+        <v>1.548978857075186e-06</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.391873350909467e-06</v>
+        <v>1.392382350467867e-06</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.235019700564522e-06</v>
+        <v>1.235287108789882e-06</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.082895692335251e-06</v>
+        <v>1.083022288791232e-06</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>9.408044196708556e-07</v>
+        <v>9.409170472221265e-07</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>8.140489760203241e-07</v>
+        <v>8.143005408325625e-07</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>7.079324548326753e-07</v>
+        <v>7.085019263725671e-07</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>6.277579495570668e-07</v>
+        <v>6.288503605923053e-07</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>5.788285536425061e-07</v>
+        <v>5.806750002417938e-07</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>5.648103870898931e-07</v>
+        <v>5.676411155332171e-07</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>5.664628694255841e-07</v>
+        <v>5.701306726094404e-07</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>5.476899050498859e-07</v>
+        <v>5.513930049864252e-07</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>4.720650302298056e-07</v>
+        <v>4.743421226123419e-07</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>3.356626240007518e-07</v>
+        <v>3.351827227383867e-07</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.198641344127215e-07</v>
+        <v>2.174966074729602e-07</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.718836530946952e-07</v>
+        <v>1.696523478391514e-07</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.60286795381952e-07</v>
+        <v>1.591072460314593e-07</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.510091247161446e-07</v>
+        <v>1.506427725348273e-07</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.364754640276078e-07</v>
+        <v>1.364634707943861e-07</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.185509720683292e-07</v>
+        <v>1.185470158188912e-07</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>9.911238439617491e-08</v>
+        <v>9.888306753469778e-08</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>8.001017562165617e-08</v>
+        <v>7.94336147931663e-08</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>6.257698770815326e-08</v>
+        <v>6.161500786609042e-08</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>4.767140944341948e-08</v>
+        <v>4.634408873272538e-08</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>3.61345459843844e-08</v>
+        <v>3.451927692727368e-08</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.880750248799265e-08</v>
+        <v>2.703899198395323e-08</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.653138411117214e-08</v>
+        <v>2.480165343696481e-08</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.014729601085677e-08</v>
+        <v>2.870568082051532e-08</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>4.049634334398672e-08</v>
+        <v>3.964949366881837e-08</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>5.841963126748694e-08</v>
+        <v>5.853151151607135e-08</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>8.616282467696582e-08</v>
+        <v>8.758820730139472e-08</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.422807038901903e-07</v>
+        <v>1.445929277762944e-07</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.463089240238007e-07</v>
+        <v>2.481352409980028e-07</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.706608978888686e-07</v>
+        <v>3.713271929726731e-07</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>4.738524236961748e-07</v>
+        <v>4.738757070601425e-07</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>5.421104566653592e-07</v>
+        <v>5.424827782093098e-07</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>5.969702978336006e-07</v>
+        <v>5.982462916537373e-07</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>6.62258318879738e-07</v>
+        <v>6.644959963011502e-07</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>7.617987283192754e-07</v>
+        <v>7.645595097889606e-07</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>9.079950759010561e-07</v>
+        <v>9.105121737042693e-07</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.075171318706622e-06</v>
+        <v>1.076911170889552e-06</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.229724556987247e-06</v>
+        <v>1.230503698521147e-06</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.338051890994239e-06</v>
+        <v>1.338036953775428e-06</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.370229224398131e-06</v>
+        <v>1.369914438257117e-06</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.345805257897864e-06</v>
+        <v>1.345709882649357e-06</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.319749850781595e-06</v>
+        <v>1.320201545914844e-06</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.347802623115176e-06</v>
+        <v>1.348932740056489e-06</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.471119054309391e-06</v>
+        <v>1.472911995137132e-06</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.668240131698441e-06</v>
+        <v>1.670745262271249e-06</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.900906458726927e-06</v>
+        <v>1.904294968075e-06</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.130858433395447e-06</v>
+        <v>2.135423334415855e-06</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.319836550197835e-06</v>
+        <v>2.325992678870923e-06</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.440063642850268e-06</v>
+        <v>2.448262534055245e-06</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.503085243816928e-06</v>
+        <v>2.513495802545713e-06</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.529665934554073e-06</v>
+        <v>2.542099570558266e-06</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.54057029651789e-06</v>
+        <v>2.554480924308773e-06</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.555891140578084e-06</v>
+        <v>2.570394676784805e-06</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.585174807558524e-06</v>
+        <v>2.599355269927146e-06</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.629588201391414e-06</v>
+        <v>2.642740912172772e-06</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.690067062553614e-06</v>
+        <v>2.70170535775314e-06</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.767547131521892e-06</v>
+        <v>2.777402360899618e-06</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.862964148773104e-06</v>
+        <v>2.870985675843657e-06</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.977253854784074e-06</v>
+        <v>2.983609056816681e-06</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>3.111351990031694e-06</v>
+        <v>3.116426258050178e-06</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>3.266177119777845e-06</v>
+        <v>3.270573004324611e-06</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>3.440410652496272e-06</v>
+        <v>3.444836595160816e-06</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>3.628300872958198e-06</v>
+        <v>3.633350718076554e-06</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.823574194427993e-06</v>
+        <v>3.829701232991877e-06</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>4.019957030170275e-06</v>
+        <v>4.027473999827091e-06</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>4.21117579344959e-06</v>
+        <v>4.220254878502422e-06</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>4.390956897530553e-06</v>
+        <v>4.401629728938175e-06</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>4.553026755677543e-06</v>
+        <v>4.565184411054406e-06</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>4.691111781155181e-06</v>
+        <v>4.704504784771425e-06</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>4.798947160459673e-06</v>
+        <v>4.813185758814809e-06</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>4.872082248155063e-06</v>
+        <v>4.886693394337189e-06</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>4.91009180399796e-06</v>
+        <v>4.92464559863461e-06</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>4.913091820727249e-06</v>
+        <v>4.927218512513194e-06</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>4.881198291081788e-06</v>
+        <v>4.894588276779036e-06</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>4.814527207800487e-06</v>
+        <v>4.826931032238288e-06</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>4.713194563622224e-06</v>
+        <v>4.724422919697061e-06</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>4.577316351285809e-06</v>
+        <v>4.587240079961411e-06</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>4.407008563530252e-06</v>
+        <v>4.415558653837581e-06</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>4.202658895073172e-06</v>
+        <v>4.209825062685484e-06</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>3.968787379851875e-06</v>
+        <v>3.974596448508055e-06</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>3.713129687266872e-06</v>
+        <v>3.717628765984618e-06</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>3.44350622471319e-06</v>
+        <v>3.44676226447719e-06</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>3.167737399585515e-06</v>
+        <v>3.169837193347442e-06</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>2.893643619278517e-06</v>
+        <v>2.894693801957035e-06</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>2.629045291187241e-06</v>
+        <v>2.629172339668003e-06</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>2.381762822706357e-06</v>
+        <v>2.381113055842003e-06</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>2.159616621230657e-06</v>
+        <v>2.15835619984082e-06</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.968478746050322e-06</v>
+        <v>1.96678841589e-06</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.806186143330591e-06</v>
+        <v>1.80423955475303e-06</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.668504688212316e-06</v>
+        <v>1.666462808006481e-06</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.551200253716277e-06</v>
+        <v>1.54921136510113e-06</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.450038712863207e-06</v>
+        <v>1.448238415487713e-06</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.360785938673973e-06</v>
+        <v>1.359297148617097e-06</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.279207804169304e-06</v>
+        <v>1.278140753940011e-06</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.201070182369944e-06</v>
+        <v>1.200522420907198e-06</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.12215368146592e-06</v>
+        <v>1.122210023045711e-06</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.041002524491446e-06</v>
+        <v>1.041725466122005e-06</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>9.62158756062374e-07</v>
+        <v>9.635676805363278e-07</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>8.90950526162307e-07</v>
+        <v>8.930189763016466e-07</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>8.327059847747371e-07</v>
+        <v>8.353616634308211e-07</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>7.92753281883193e-07</v>
+        <v>7.958780519367459e-07</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>7.764205674712019e-07</v>
+        <v>7.798504518323152e-07</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>7.890359915223097e-07</v>
+        <v>7.925611731304409e-07</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>8.359277040200318e-07</v>
+        <v>8.392925258440046e-07</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>9.2231854588815e-07</v>
+        <v>9.252223218724304e-07</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.047532095345629e-06</v>
+        <v>1.049674538459248e-06</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.201981341961987e-06</v>
+        <v>1.203131181359254e-06</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.375339403071442e-06</v>
+        <v>1.375340081575476e-06</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.557279396008245e-06</v>
+        <v>1.556049070110972e-06</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.737474438106398e-06</v>
+        <v>1.735005977968554e-06</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.905597646700149e-06</v>
+        <v>1.90195863615128e-06</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>2.051322139123727e-06</v>
+        <v>2.046654875662187e-06</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.164321032711166e-06</v>
+        <v>2.158842527504119e-06</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>2.236227857680723e-06</v>
+        <v>2.230215985908072e-06</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>2.268936158897475e-06</v>
+        <v>2.262657176207576e-06</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>2.267684716411932e-06</v>
+        <v>2.261369625962857e-06</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>2.237714151269027e-06</v>
+        <v>2.23155869072256e-06</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>2.184265084513699e-06</v>
+        <v>2.178429726035339e-06</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.112578137190879e-06</v>
+        <v>2.10718808744984e-06</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>2.02789393034546e-06</v>
+        <v>2.023039130514666e-06</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.935453085022451e-06</v>
+        <v>1.931188210778541e-06</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.840496148735676e-06</v>
+        <v>1.836840610732684e-06</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.747278104255609e-06</v>
+        <v>1.74422239707825e-06</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.656597633433634e-06</v>
+        <v>1.654125600895668e-06</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.568496177079423e-06</v>
+        <v>1.566589890328346e-06</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.483015176002687e-06</v>
+        <v>1.481654933519729e-06</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.400196071013101e-06</v>
+        <v>1.399360398613232e-06</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.320080302920453e-06</v>
+        <v>1.319745953752375e-06</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.242709312534417e-06</v>
+        <v>1.24285126708057e-06</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.168124540664705e-06</v>
+        <v>1.168716006741263e-06</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.096367428120998e-06</v>
+        <v>1.097379840877873e-06</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.027479415713072e-06</v>
+        <v>1.028882437633912e-06</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>9.615019442506077e-07</v>
+        <v>9.632634651527932e-07</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>8.984764545432891e-07</v>
+        <v>9.005625915779398e-07</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>8.38444387400885e-07</v>
+        <v>8.408194850528553e-07</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.814471836330788e-07</v>
+        <v>7.840738137209589e-07</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>7.275262840495592e-07</v>
+        <v>7.303652457256755e-07</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.767231294600873e-07</v>
+        <v>6.797334492105019e-07</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.290791606743497e-07</v>
+        <v>6.322180923188605e-07</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>5.846198281080593e-07</v>
+        <v>5.878432876155884e-07</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>5.432637625871574e-07</v>
+        <v>5.465292327447278e-07</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>5.048858278266629e-07</v>
+        <v>5.081535483672565e-07</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>4.69360755315392e-07</v>
+        <v>4.725937265134803e-07</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>4.3656327654218e-07</v>
+        <v>4.397272592137243e-07</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>4.063681229958496e-07</v>
+        <v>4.094316384983012e-07</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.78650026165263e-07</v>
+        <v>3.81584356397563e-07</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.532837175392415e-07</v>
+        <v>3.560629049418211e-07</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.301439286066106e-07</v>
+        <v>3.327447761613906e-07</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>3.091053908562264e-07</v>
+        <v>3.115074620866176e-07</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.900428357769135e-07</v>
+        <v>2.922284547478165e-07</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.728309948574999e-07</v>
+        <v>2.747852461753051e-07</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.573445995868364e-07</v>
+        <v>2.590553283994242e-07</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.434583814537503e-07</v>
+        <v>2.449161934504911e-07</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.310470719470716e-07</v>
+        <v>2.322453333588254e-07</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.199854025556517e-07</v>
+        <v>2.209202401547685e-07</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.101481047683058e-07</v>
+        <v>2.108184058686254e-07</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.014099100738798e-07</v>
+        <v>2.018173225307318e-07</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.936455499612155e-07</v>
+        <v>1.937944821714198e-07</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.867297559191342e-07</v>
+        <v>1.86627376821e-07</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.805372594364838e-07</v>
+        <v>1.801934985098107e-07</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.749427920020885e-07</v>
+        <v>1.743703392681654e-07</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.698210851047894e-07</v>
+        <v>1.690353911263954e-07</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.65046870233426e-07</v>
+        <v>1.640661461148302e-07</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.604948788768248e-07</v>
+        <v>1.593400962637859e-07</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.560398425238256e-07</v>
+        <v>1.547347336035922e-07</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.515634597312126e-07</v>
+        <v>1.501342884114679e-07</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.470286603991419e-07</v>
+        <v>1.45501554407837e-07</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.424508955413268e-07</v>
+        <v>1.408501214633634e-07</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.37846496650141e-07</v>
+        <v>1.361944310096033e-07</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.332317952179462e-07</v>
+        <v>1.315489244781004e-07</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.286231227371162e-07</v>
+        <v>1.269280433004112e-07</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.24036810700025e-07</v>
+        <v>1.223462289080917e-07</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.194891905990341e-07</v>
+        <v>1.17817922732686e-07</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.149965939265176e-07</v>
+        <v>1.133575662057503e-07</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.105753521748491e-07</v>
+        <v>1.089796007588406e-07</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.062417968363905e-07</v>
+        <v>1.046984678235012e-07</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.020122594035194e-07</v>
+        <v>1.00528608831292e-07</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>9.790307136859791e-08</v>
+        <v>9.648446521375737e-08</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>9.393056422399981e-08</v>
+        <v>9.258047840245345e-08</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>9.011106946209823e-08</v>
+        <v>8.883108982893565e-08</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>8.646091857525609e-08</v>
+        <v>8.52507409247493e-08</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>8.299644305584676e-08</v>
+        <v>8.185387312145007e-08</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>7.973362999342332e-08</v>
+        <v>7.865461599377961e-08</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>7.667851562428455e-08</v>
+        <v>7.565808861711989e-08</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>7.382590720882325e-08</v>
+        <v>7.285924222721022e-08</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>7.117001080939736e-08</v>
+        <v>7.025248367486437e-08</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>6.870503248835762e-08</v>
+        <v>6.783221981088909e-08</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>6.642517830806409e-08</v>
+        <v>6.559285748610016e-08</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>6.432465433086827e-08</v>
+        <v>6.352880355130506e-08</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>6.23976666191279e-08</v>
+        <v>6.163446485731735e-08</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>6.063842123520003e-08</v>
+        <v>5.990424825494995e-08</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>5.904112424143715e-08</v>
+        <v>5.833256059501121e-08</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>5.759998170019644e-08</v>
+        <v>5.691380872831419e-08</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>5.630919967383463e-08</v>
+        <v>5.564239950567147e-08</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>5.516298422470496e-08</v>
+        <v>5.451273977789219e-08</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>5.415554141516427e-08</v>
+        <v>5.351923639578905e-08</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>5.328107730756887e-08</v>
+        <v>5.265629621017418e-08</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>5.253379796427278e-08</v>
+        <v>5.191832607185753e-08</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>5.190790944763241e-08</v>
+        <v>5.129973283165136e-08</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>5.139761782000381e-08</v>
+        <v>5.079492334036755e-08</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>5.09971291437416e-08</v>
+        <v>5.039830444881665e-08</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>5.070064948120214e-08</v>
+        <v>5.010428300781082e-08</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>5.050238489474046e-08</v>
+        <v>4.990726586816103e-08</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>5.039654144671248e-08</v>
+        <v>4.980165988067901e-08</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>5.037732519947378e-08</v>
+        <v>4.978187189617623e-08</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>5.043894221537989e-08</v>
+        <v>4.98423087654641e-08</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>5.057559855678648e-08</v>
+        <v>4.997737733935412e-08</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>5.078150028604887e-08</v>
+        <v>5.018148446865753e-08</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>5.105085346552311e-08</v>
+        <v>5.04490370041862e-08</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>5.137786415756457e-08</v>
+        <v>5.077444179675139e-08</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>5.175673842452849e-08</v>
+        <v>5.115210569716422e-08</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>5.218168232877115e-08</v>
+        <v>5.157643555623682e-08</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>5.26469019326478e-08</v>
+        <v>5.204183822478031e-08</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>5.314660329851358e-08</v>
+        <v>5.254272055360569e-08</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>5.367499248872502e-08</v>
+        <v>5.307348939352537e-08</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>5.422627556563672e-08</v>
+        <v>5.362855159534981e-08</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>5.479465859160525e-08</v>
+        <v>5.420231400989146e-08</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>5.537500872257801e-08</v>
+        <v>5.478983789674849e-08</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>5.597229320283296e-08</v>
+        <v>5.53961824744042e-08</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>5.659936220708921e-08</v>
+        <v>5.603421018165709e-08</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>5.726927501587668e-08</v>
+        <v>5.671699044869315e-08</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>5.799509090972508e-08</v>
+        <v>5.745759270569832e-08</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>5.878986916916614e-08</v>
+        <v>5.826908638286047e-08</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>5.966666907472966e-08</v>
+        <v>5.916454091036558e-08</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>6.063854990694513e-08</v>
+        <v>6.015702571839927e-08</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>6.171857094634473e-08</v>
+        <v>6.125961023714992e-08</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>6.291979147345692e-08</v>
+        <v>6.248536389680211e-08</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>6.425527076881423e-08</v>
+        <v>6.384735612754462e-08</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>6.573806811294608e-08</v>
+        <v>6.535865635956295e-08</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>6.738124278638137e-08</v>
+        <v>6.703233402304216e-08</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>6.919785406965343e-08</v>
+        <v>6.888145854817181e-08</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>7.120096124329128e-08</v>
+        <v>7.091909936513706e-08</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>7.340362358782329e-08</v>
+        <v>7.315832590412236e-08</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>7.581890038378381e-08</v>
+        <v>7.561220759531835e-08</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>7.845985091170139e-08</v>
+        <v>7.82938138689097e-08</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>8.133953445210373e-08</v>
+        <v>8.121621415508022e-08</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>8.447101028552645e-08</v>
+        <v>8.439247788402178e-08</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>8.786733769249748e-08</v>
+        <v>8.783567448591841e-08</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>9.154157595354383e-08</v>
+        <v>9.155887339095325e-08</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>9.550983418629917e-08</v>
+        <v>9.557816125394957e-08</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>9.982101973817779e-08</v>
+        <v>9.994207224203214e-08</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.045440035541942e-07</v>
+        <v>1.047188906455202e-07</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.097479394549522e-07</v>
+        <v>1.099771806054822e-07</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.15501981261038e-07</v>
+        <v>1.157855062629684e-07</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.218752827930572e-07</v>
+        <v>1.222124317590491e-07</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.289369978716007e-07</v>
+        <v>1.293265212347794e-07</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.367562803172564e-07</v>
+        <v>1.371963388312116e-07</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.454022839506339e-07</v>
+        <v>1.458904486894197e-07</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.549441625923221e-07</v>
+        <v>1.554774149504571e-07</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.654510700629065e-07</v>
+        <v>1.660258017553735e-07</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.769921601830015e-07</v>
+        <v>1.77604173245248e-07</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.896365867731937e-07</v>
+        <v>1.902810935611313e-07</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.034523982828581e-07</v>
+        <v>2.041239241279257e-07</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.185000450730417e-07</v>
+        <v>2.191917591536547e-07</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.348367833918784e-07</v>
+        <v>2.355402174426609e-07</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.525198584341402e-07</v>
+        <v>2.53224905772501e-07</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.71606515394555e-07</v>
+        <v>2.723014309206883e-07</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.921539994678461e-07</v>
+        <v>2.928253996647311e-07</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>3.142195558487928e-07</v>
+        <v>3.148524187821934e-07</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>3.378604297321193e-07</v>
+        <v>3.384380950505849e-07</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>3.631338663125446e-07</v>
+        <v>3.636380352474095e-07</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>3.900055065220846e-07</v>
+        <v>3.904169731233132e-07</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>4.18022659766789e-07</v>
+        <v>4.183246502563826e-07</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.466132862309195e-07</v>
+        <v>4.467924117143555e-07</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.752053370926611e-07</v>
+        <v>4.752515936307854e-07</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.032267635300967e-07</v>
+        <v>5.031335321391238e-07</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>5.301055167214105e-07</v>
+        <v>5.298695633729227e-07</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>5.552695478447099e-07</v>
+        <v>5.548910234656586e-07</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>5.781468080781089e-07</v>
+        <v>5.776292485508136e-07</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>5.981652485997822e-07</v>
+        <v>5.975155747619308e-07</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>6.147528205878414e-07</v>
+        <v>6.1398133823249e-07</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>6.273374752204104e-07</v>
+        <v>6.26457875095984e-07</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>6.353471636756453e-07</v>
+        <v>6.343765214859371e-07</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>6.382098371316661e-07</v>
+        <v>6.371686135358374e-07</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>6.353534467666117e-07</v>
+        <v>6.342654873791926e-07</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>6.2620594375861e-07</v>
+        <v>6.250984791494989e-07</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>6.101952792857948e-07</v>
+        <v>6.090989249802583e-07</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>5.867494045263231e-07</v>
+        <v>5.856981610049968e-07</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>5.554942388479651e-07</v>
+        <v>5.545244414184396e-07</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>5.173828948137398e-07</v>
+        <v>5.16526173473024e-07</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.739140256955181e-07</v>
+        <v>4.731944112923998e-07</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.265879618676387e-07</v>
+        <v>4.260218772064421e-07</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>3.76905033704603e-07</v>
+        <v>3.765012935451881e-07</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>3.263655715807388e-07</v>
+        <v>3.261253826385021e-07</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.764699058705088e-07</v>
+        <v>2.763868668163825e-07</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.287183669483731e-07</v>
+        <v>2.287784684088258e-07</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.846112851886632e-07</v>
+        <v>1.847929097456998e-07</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.456489909658419e-07</v>
+        <v>1.459229131570032e-07</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.133306508155139e-07</v>
+        <v>1.136600438015693e-07</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>8.851078873827939e-08</v>
+        <v>8.885491749330832e-08</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>7.032990501740783e-08</v>
+        <v>7.065394605841753e-08</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>5.764677746322259e-08</v>
+        <v>5.79234328526168e-08</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>4.932018388601585e-08</v>
+        <v>4.952968123159468e-08</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>4.420890209611891e-08</v>
+        <v>4.433899455107909e-08</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>4.117170990383756e-08</v>
+        <v>4.121767616677209e-08</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>3.907115420077634e-08</v>
+        <v>3.903577260441592e-08</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>3.714422775077125e-08</v>
+        <v>3.703520206333966e-08</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>3.531493264045953e-08</v>
+        <v>3.514016909074243e-08</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>3.358086603865626e-08</v>
+        <v>3.334796737275356e-08</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.193962511417623e-08</v>
+        <v>3.165589059550196e-08</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.038880703582982e-08</v>
+        <v>3.006123244511203e-08</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.892600897243188e-08</v>
+        <v>2.85612866077128e-08</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.754882809279694e-08</v>
+        <v>2.715334676943296e-08</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.625486156573587e-08</v>
+        <v>2.583470661639741e-08</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.504170656006327e-08</v>
+        <v>2.460265983473491e-08</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.390696024459347e-08</v>
+        <v>2.345450011057392e-08</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.284821978813776e-08</v>
+        <v>2.238752113003983e-08</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.186308235951053e-08</v>
+        <v>2.139901657926114e-08</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.094914512752591e-08</v>
+        <v>2.048628014436611e-08</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.010400526099558e-08</v>
+        <v>1.964660551148054e-08</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.932525992873442e-08</v>
+        <v>1.887728636673341e-08</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.861050629955435e-08</v>
+        <v>1.817561639625078e-08</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.795734154226943e-08</v>
+        <v>1.753888928616082e-08</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.736336282569352e-08</v>
+        <v>1.696439872259149e-08</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.682616731863887e-08</v>
+        <v>1.644943839166919e-08</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.634335218991938e-08</v>
+        <v>1.599130197952193e-08</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.591251460834877e-08</v>
+        <v>1.558728317227749e-08</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.553125174273957e-08</v>
+        <v>1.52346756560626e-08</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.519716076190554e-08</v>
+        <v>1.493077311700511e-08</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.490783883466026e-08</v>
+        <v>1.467286924123267e-08</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.466088312981653e-08</v>
+        <v>1.445825771487227e-08</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.445389081618815e-08</v>
+        <v>1.428423222405176e-08</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.428445906258808e-08</v>
+        <v>1.414808645489829e-08</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.415018503782984e-08</v>
+        <v>1.404711409353946e-08</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.404866591072687e-08</v>
+        <v>1.397860882610279e-08</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.397749885009231e-08</v>
+        <v>1.39398643387156e-08</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.39342810247396e-08</v>
+        <v>1.392817431750542e-08</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.391660960348208e-08</v>
+        <v>1.394083244859969e-08</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.392208175513306e-08</v>
+        <v>1.397513241812587e-08</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.394829464850589e-08</v>
+        <v>1.402836791221142e-08</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.399284545241386e-08</v>
+        <v>1.409783261698373e-08</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.40533313356704e-08</v>
+        <v>1.418082021857036e-08</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.412734946708872e-08</v>
+        <v>1.427462440309863e-08</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.42124970154823e-08</v>
+        <v>1.437653885669616e-08</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.430637114966443e-08</v>
+        <v>1.448385726549033e-08</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.440656995540869e-08</v>
+        <v>1.459387435442128e-08</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.451165074735371e-08</v>
+        <v>1.470497154667427e-08</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.462294613186439e-08</v>
+        <v>1.481867435831867e-08</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.474228771850983e-08</v>
+        <v>1.493707361984053e-08</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.487150711685945e-08</v>
+        <v>1.506226016172624e-08</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.501243593648233e-08</v>
+        <v>1.519632481446187e-08</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.516690578694754e-08</v>
+        <v>1.534135840853345e-08</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.533674827782455e-08</v>
+        <v>1.549945177442743e-08</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.552379501868244e-08</v>
+        <v>1.567269574262984e-08</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.57298776190902e-08</v>
+        <v>1.586318114362667e-08</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.595682768861742e-08</v>
+        <v>1.607299880790445e-08</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.620647683683311e-08</v>
+        <v>1.630423956594917e-08</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.648065667330623e-08</v>
+        <v>1.655899424824679e-08</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.678119880760644e-08</v>
+        <v>1.683935368528391e-08</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.710993484930244e-08</v>
+        <v>1.714740870754621e-08</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.7468696407964e-08</v>
+        <v>1.748525014552042e-08</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.785931509316003e-08</v>
+        <v>1.785496882969244e-08</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.828362251445936e-08</v>
+        <v>1.825865559054806e-08</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.874345028143192e-08</v>
+        <v>1.869840125857418e-08</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.924063000364658e-08</v>
+        <v>1.917629666425664e-08</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.977699329067201e-08</v>
+        <v>1.96944326380811e-08</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.03543717520784e-08</v>
+        <v>2.025490001053469e-08</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.097459699743446e-08</v>
+        <v>2.085978961210311e-08</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.163950063630881e-08</v>
+        <v>2.151119227327195e-08</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.235091427827182e-08</v>
+        <v>2.221119882452854e-08</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.311066953289141e-08</v>
+        <v>2.296190009635779e-08</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.392059800973815e-08</v>
+        <v>2.376538691924722e-08</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.478253131838058e-08</v>
+        <v>2.462375012368236e-08</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.569830106838706e-08</v>
+        <v>2.553908054014852e-08</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.666973886932842e-08</v>
+        <v>2.651346899913353e-08</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>2.769867633077308e-08</v>
+        <v>2.754900633112275e-08</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.878694506228923e-08</v>
+        <v>2.864778336660136e-08</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.993637667344803e-08</v>
+        <v>2.981189093605749e-08</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>3.114880277381772e-08</v>
+        <v>3.104341986997634e-08</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>3.242605497296633e-08</v>
+        <v>3.234446099884291e-08</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>3.376996488046536e-08</v>
+        <v>3.371710515314569e-08</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>3.518236410588158e-08</v>
+        <v>3.516344316336839e-08</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>3.666508425878675e-08</v>
+        <v>3.668556585999979e-08</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>3.821995680905753e-08</v>
+        <v>3.828556392326437e-08</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>3.984480397849609e-08</v>
+        <v>3.996121544320909e-08</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>4.15229539204669e-08</v>
+        <v>4.169470781157202e-08</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>4.323446053341111e-08</v>
+        <v>4.34647064330853e-08</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>4.495937771576369e-08</v>
+        <v>4.524987671247477e-08</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>4.667775936596585e-08</v>
+        <v>4.70288840544727e-08</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>4.83696593824541e-08</v>
+        <v>4.878039386380644e-08</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>5.001513166366504e-08</v>
+        <v>5.048307154520353e-08</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>5.159423010803972e-08</v>
+        <v>5.211558250339604e-08</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>5.30870086140147e-08</v>
+        <v>5.365659214311142e-08</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>5.447352108002684e-08</v>
+        <v>5.508476586907746e-08</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>5.573382140451671e-08</v>
+        <v>5.637876908602571e-08</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>5.684796348592106e-08</v>
+        <v>5.751726719868385e-08</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>5.779600122267721e-08</v>
+        <v>5.847892561178014e-08</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>5.855798851322494e-08</v>
+        <v>5.924240973004528e-08</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>5.911397925600097e-08</v>
+        <v>5.978638495820697e-08</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>5.944402734944437e-08</v>
+        <v>6.00895167009952e-08</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>5.95281866919926e-08</v>
+        <v>6.013047036313837e-08</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>5.934838118780182e-08</v>
+        <v>5.988993659490165e-08</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>5.891936572019102e-08</v>
+        <v>5.938416251215521e-08</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>5.828390427006972e-08</v>
+        <v>5.865972952296839e-08</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>5.748565881368947e-08</v>
+        <v>5.776419157845694e-08</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>5.65682913272996e-08</v>
+        <v>5.674510262973415e-08</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>5.557546378715147e-08</v>
+        <v>5.565001662791558e-08</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>5.455083816949684e-08</v>
+        <v>5.452648752411715e-08</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>5.353807645058455e-08</v>
+        <v>5.342206926945173e-08</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>5.258084060666715e-08</v>
+        <v>5.238431581503606e-08</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>5.172279261399361e-08</v>
+        <v>5.146078111198314e-08</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>5.100759444881563e-08</v>
+        <v>5.069901911140885e-08</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>5.047890808738433e-08</v>
+        <v>5.014658376442844e-08</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>5.018039550594952e-08</v>
+        <v>4.985102902215577e-08</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>5.015571868076252e-08</v>
+        <v>4.985990883570636e-08</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>5.044833076104074e-08</v>
+        <v>5.022055540812995e-08</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>5.106583739726521e-08</v>
+        <v>5.094223540395607e-08</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>5.193965095931049e-08</v>
+        <v>5.195330779930755e-08</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>5.299143688214774e-08</v>
+        <v>5.317178155038666e-08</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>5.414286060075101e-08</v>
+        <v>5.451566561339899e-08</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>5.531558755009049e-08</v>
+        <v>5.590296894454571e-08</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>5.643128316514047e-08</v>
+        <v>5.725170050003274e-08</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>5.741161288087201e-08</v>
+        <v>5.847986923606223e-08</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>5.817824213225723e-08</v>
+        <v>5.950548410883756e-08</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>5.865550410688545e-08</v>
+        <v>6.024893135049854e-08</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>5.885172177927632e-08</v>
+        <v>6.070544180138075e-08</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>5.887411655498027e-08</v>
+        <v>6.095837623513714e-08</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>5.883558429886478e-08</v>
+        <v>6.109615202456083e-08</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>5.884902087579733e-08</v>
+        <v>6.120718654244429e-08</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>5.902732215064517e-08</v>
+        <v>6.137989716158011e-08</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>5.948338398827615e-08</v>
+        <v>6.17027012547613e-08</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>6.031845540617273e-08</v>
+        <v>6.225621720692913e-08</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>6.143696275316307e-08</v>
+        <v>6.298926656985819e-08</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>6.257938647771183e-08</v>
+        <v>6.374088907686526e-08</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>6.34812044636531e-08</v>
+        <v>6.434677463281233e-08</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>6.38778945948219e-08</v>
+        <v>6.464261314256196e-08</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>6.357742090277481e-08</v>
+        <v>6.450567985534243e-08</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>6.271208056693203e-08</v>
+        <v>6.399932013263121e-08</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>6.150484698046139e-08</v>
+        <v>6.323890033154415e-08</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>6.017869776329871e-08</v>
+        <v>6.233978923409629e-08</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>5.892073372820424e-08</v>
+        <v>6.13995896391495e-08</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.775811492398235e-08</v>
+        <v>6.043670262329134e-08</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.667344800228861e-08</v>
+        <v>5.944746668381491e-08</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.564933772812717e-08</v>
+        <v>5.842821938375487e-08</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.466838886649941e-08</v>
+        <v>5.737529828614311e-08</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.371320618240955e-08</v>
+        <v>5.628504095401429e-08</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.276639444086163e-08</v>
+        <v>5.515378495040313e-08</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>5.181055840685725e-08</v>
+        <v>5.39778678383414e-08</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>5.082830284540136e-08</v>
+        <v>5.275362718086493e-08</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.980223252149545e-08</v>
+        <v>5.147740054100526e-08</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.871495220014366e-08</v>
+        <v>5.014552548179721e-08</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.754906664634918e-08</v>
+        <v>4.87543395662745e-08</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.628718062511646e-08</v>
+        <v>4.730018035747223e-08</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.491289186270944e-08</v>
+        <v>4.57799587916944e-08</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.343377620873358e-08</v>
+        <v>4.420443167776197e-08</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.188203861652602e-08</v>
+        <v>4.259857759763012e-08</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>4.02910072260574e-08</v>
+        <v>4.098802370356797e-08</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>3.869401017729841e-08</v>
+        <v>3.939839714784464e-08</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>3.712437561021549e-08</v>
+        <v>3.785532508272497e-08</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>3.561543166477937e-08</v>
+        <v>3.638443466047815e-08</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>3.420050648096056e-08</v>
+        <v>3.501135303337305e-08</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>3.291292819872582e-08</v>
+        <v>3.376170735367491e-08</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.178602495804575e-08</v>
+        <v>3.266112477365273e-08</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.085312489889041e-08</v>
+        <v>3.173523244557498e-08</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.01475561612274e-08</v>
+        <v>3.100965752170769e-08</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.970264688502722e-08</v>
+        <v>3.051002715431985e-08</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.954826425194837e-08</v>
+        <v>3.026162282313325e-08</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.969466919903223e-08</v>
+        <v>3.028776778131432e-08</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.014522659165098e-08</v>
+        <v>3.061109651827277e-08</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.090329367366578e-08</v>
+        <v>3.125424276220021e-08</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.19722276889367e-08</v>
+        <v>3.22398402412875e-08</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.335538588132271e-08</v>
+        <v>3.359052268372434e-08</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.505612549468664e-08</v>
+        <v>3.532892381770417e-08</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.707780377288776e-08</v>
+        <v>3.747767737141699e-08</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.942378003943162e-08</v>
+        <v>4.005941910166405e-08</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>4.247283179231936e-08</v>
+        <v>4.346299013993381e-08</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>4.802644536614798e-08</v>
+        <v>4.946502703618323e-08</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>5.819925380524346e-08</v>
+        <v>6.014691340880577e-08</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>7.356656494544522e-08</v>
+        <v>7.604227249738363e-08</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>9.225205554122429e-08</v>
+        <v>9.521966205028146e-08</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.121606419228776e-07</v>
+        <v>1.155276806317227e-07</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.311972404206511e-07</v>
+        <v>1.348149268058785e-07</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.472667673647941e-07</v>
+        <v>1.509299991369238e-07</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.582998741360765e-07</v>
+        <v>1.617485435403098e-07</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.638680702102736e-07</v>
+        <v>1.668707358778523e-07</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.661434466667744e-07</v>
+        <v>1.686299443983509e-07</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.67528628369731e-07</v>
+        <v>1.696018266848743e-07</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.704262401832856e-07</v>
+        <v>1.723620403204834e-07</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.769900863681945e-07</v>
+        <v>1.792148771833446e-07</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.869582527529611e-07</v>
+        <v>1.898300276505066e-07</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.987103895495405e-07</v>
+        <v>2.02395661543167e-07</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.106110084673141e-07</v>
+        <v>2.15083438512682e-07</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.210246212156962e-07</v>
+        <v>2.26065018210443e-07</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.284179719144459e-07</v>
+        <v>2.336307400967447e-07</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.324078171541067e-07</v>
+        <v>2.374059729029681e-07</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.333350032652434e-07</v>
+        <v>2.378566684171007e-07</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.315516673856834e-07</v>
+        <v>2.354618857268963e-07</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.274099466532488e-07</v>
+        <v>2.30700683920101e-07</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.212619240754063e-07</v>
+        <v>2.240506669655935e-07</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.134572000816402e-07</v>
+        <v>2.159227027866081e-07</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.043419124654801e-07</v>
+        <v>2.066345775862215e-07</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.942619420504853e-07</v>
+        <v>1.96497169763979e-07</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.835631696602184e-07</v>
+        <v>1.858213577194286e-07</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.725914761182127e-07</v>
+        <v>1.749180198520894e-07</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.616927422480403e-07</v>
+        <v>1.640980345615188e-07</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.512085514552744e-07</v>
+        <v>1.536684715830921e-07</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.413304506988547e-07</v>
+        <v>1.438034281464001e-07</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.320643988513887e-07</v>
+        <v>1.34512520693614e-07</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.234048460942116e-07</v>
+        <v>1.257951658817759e-07</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.153462426086841e-07</v>
+        <v>1.176507803679531e-07</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.078830385761648e-07</v>
+        <v>1.10078780809211e-07</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.010096841779922e-07</v>
+        <v>1.030785838625946e-07</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>9.47206295955253e-08</v>
+        <v>9.664960618516987e-08</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>8.901032501012116e-08</v>
+        <v>9.079126443400049e-08</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>8.387322060312146e-08</v>
+        <v>8.550297526613472e-08</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>7.930376655588757e-08</v>
+        <v>8.078415533864083e-08</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>7.529641304976324e-08</v>
+        <v>7.663422130856908e-08</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>7.184561026610491e-08</v>
+        <v>7.305258983298273e-08</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>6.894372971399512e-08</v>
+        <v>7.003648068512505e-08</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>6.652675683207101e-08</v>
+        <v>6.752352096103078e-08</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>6.44690696590547e-08</v>
+        <v>6.538622681944466e-08</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>6.264192072743723e-08</v>
+        <v>6.349381116916913e-08</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>6.091656256970245e-08</v>
+        <v>6.171548691899918e-08</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.916424771833911e-08</v>
+        <v>5.992046697773488e-08</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>5.725622870583613e-08</v>
+        <v>5.797796425417638e-08</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>5.506375806467722e-08</v>
+        <v>5.57571916571186e-08</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>5.245819008851013e-08</v>
+        <v>5.312746436562617e-08</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.93917852605988e-08</v>
+        <v>5.003940851774209e-08</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>4.604307993853615e-08</v>
+        <v>4.667105817199857e-08</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>4.262986536037981e-08</v>
+        <v>4.323989865747105e-08</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>3.936993276418761e-08</v>
+        <v>3.996341530323512e-08</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>3.648107338800854e-08</v>
+        <v>3.705909343835753e-08</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>3.418107846990242e-08</v>
+        <v>3.474441839191588e-08</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>3.268773924791997e-08</v>
+        <v>3.323687549297861e-08</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>3.221884696011858e-08</v>
+        <v>3.275395007062093e-08</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>3.299219284455199e-08</v>
+        <v>3.351312745391432e-08</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>3.522556813927644e-08</v>
+        <v>3.573189297193277e-08</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>3.913676408234685e-08</v>
+        <v>3.9627731953749e-08</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>4.494357191181214e-08</v>
+        <v>4.541812972842967e-08</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>5.286378286573761e-08</v>
+        <v>5.332057162505785e-08</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>6.323204215075007e-08</v>
+        <v>6.367152567094771e-08</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>7.784519847169118e-08</v>
+        <v>7.829630036431809e-08</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>9.949519339529207e-08</v>
+        <v>1.000334246798104e-07</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.309930406820087e-07</v>
+        <v>1.317408472240961e-07</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.751497540923965e-07</v>
+        <v>1.762765166039461e-07</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>2.347763473869322e-07</v>
+        <v>2.364983814260528e-07</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>3.097372332248297e-07</v>
+        <v>3.122678879493498e-07</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>3.729602720673726e-07</v>
+        <v>3.760537546329196e-07</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>3.829372827315767e-07</v>
+        <v>3.85644181198222e-07</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>3.441321300585528e-07</v>
+        <v>3.455191314741498e-07</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>3.594502921969303e-07</v>
+        <v>3.60241022450007e-07</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>4.095728858758159e-07</v>
+        <v>4.103940790427187e-07</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>4.598537757262068e-07</v>
+        <v>4.610086662925255e-07</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>4.787602254477313e-07</v>
+        <v>4.802438740060521e-07</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>4.675793292589366e-07</v>
+        <v>4.692401780279851e-07</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>4.472732398777595e-07</v>
+        <v>4.489099631199628e-07</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>4.388705252128548e-07</v>
+        <v>4.402348882956604e-07</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>4.483666051802759e-07</v>
+        <v>4.492795212150946e-07</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>4.572351984416774e-07</v>
+        <v>4.57771760173754e-07</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>4.566471254596926e-07</v>
+        <v>4.569880136575665e-07</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>4.479861918197317e-07</v>
+        <v>4.482766419816071e-07</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>4.329560604918068e-07</v>
+        <v>4.333014458665884e-07</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>4.132603944459516e-07</v>
+        <v>4.137262260332446e-07</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>3.906028566522163e-07</v>
+        <v>3.912147832023265e-07</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>3.666871100805878e-07</v>
+        <v>3.674309180945219e-07</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>3.431529945729819e-07</v>
+        <v>3.439768125443221e-07</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.207249522336504e-07</v>
+        <v>3.215708654892049e-07</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>2.994424627016224e-07</v>
+        <v>3.002701697622585e-07</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>2.793284879357849e-07</v>
+        <v>2.801158709830208e-07</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.604059898950211e-07</v>
+        <v>2.611491147710257e-07</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.426979305381633e-07</v>
+        <v>2.434110467457563e-07</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.262272718241099e-07</v>
+        <v>2.269428125267616e-07</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.110169757116976e-07</v>
+        <v>2.117855577335291e-07</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.970902063783796e-07</v>
+        <v>1.979805728015818e-07</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.845274664607724e-07</v>
+        <v>1.856102102987959e-07</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.735451511707916e-07</v>
+        <v>1.748541403525683e-07</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.643793438722699e-07</v>
+        <v>1.659061324838304e-07</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.572661279290339e-07</v>
+        <v>1.589599562135068e-07</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.524156333236236e-07</v>
+        <v>1.54185344398647e-07</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.496017627914091e-07</v>
+        <v>1.513480190432457e-07</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.482362986003387e-07</v>
+        <v>1.498783251204018e-07</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.477200522399694e-07</v>
+        <v>1.491964470422546e-07</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.474538351998623e-07</v>
+        <v>1.487225692209486e-07</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.468384589695766e-07</v>
+        <v>1.478768760686254e-07</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.452747350386715e-07</v>
+        <v>1.460795519974271e-07</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.422317939756637e-07</v>
+        <v>1.428187474034055e-07</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.378747865173023e-07</v>
+        <v>1.382750355939916e-07</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.32775293865322e-07</v>
+        <v>1.330333197777946e-07</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.275099903804004e-07</v>
+        <v>1.276835699992778e-07</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.226555504232008e-07</v>
+        <v>1.228157563028892e-07</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.187858485256526e-07</v>
+        <v>1.190169001506865e-07</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.160447485106579e-07</v>
+        <v>1.164211660177918e-07</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.136867537890881e-07</v>
+        <v>1.142261066437678e-07</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.10896031710015e-07</v>
+        <v>1.115559993178454e-07</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.074096148110626e-07</v>
+        <v>1.081284268559573e-07</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.033690224449681e-07</v>
+        <v>1.040950458190521e-07</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>9.892502921325691e-08</v>
+        <v>9.961744500901284e-08</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>9.422840971745856e-08</v>
+        <v>9.485721322772697e-08</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>8.942993855908978e-08</v>
+        <v>8.99759392770689e-08</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>8.468039033968411e-08</v>
+        <v>8.513521195893017e-08</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>8.012968249120825e-08</v>
+        <v>8.049570295667578e-08</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>7.586977169827469e-08</v>
+        <v>7.615606953165646e-08</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>7.189880450140688e-08</v>
+        <v>7.211459788152471e-08</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>6.820637509842656e-08</v>
+        <v>6.836042372514015e-08</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>6.478207768716648e-08</v>
+        <v>6.48826827813736e-08</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>6.161550646545822e-08</v>
+        <v>6.167051076909475e-08</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>5.869625563112503e-08</v>
+        <v>5.871304340716476e-08</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.601391938199881e-08</v>
+        <v>5.599941641445364e-08</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.35580919159106e-08</v>
+        <v>5.351876550983051e-08</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.131836743068492e-08</v>
+        <v>5.126022641215782e-08</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>4.928434012415475e-08</v>
+        <v>4.921293484030666e-08</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.744560419414534e-08</v>
+        <v>4.736602651314028e-08</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.579175383848757e-08</v>
+        <v>4.570863714952762e-08</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.431238325501158e-08</v>
+        <v>4.422990246833686e-08</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>4.29970866415437e-08</v>
+        <v>4.291895818843233e-08</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>4.183545819591422e-08</v>
+        <v>4.176494002868239e-08</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>4.081709211595294e-08</v>
+        <v>4.075698370795487e-08</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.993158259948696e-08</v>
+        <v>3.98842249451149e-08</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.916852384434618e-08</v>
+        <v>3.913579945903042e-08</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.851751004836007e-08</v>
+        <v>3.850084296856892e-08</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.79681354093564e-08</v>
+        <v>3.796849119259624e-08</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.75099941251651e-08</v>
+        <v>3.752787984998031e-08</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.713268039361429e-08</v>
+        <v>3.716814465958731e-08</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.682578841253334e-08</v>
+        <v>3.687842134028464e-08</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.657891237975116e-08</v>
+        <v>3.664784561093926e-08</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.638164649309687e-08</v>
+        <v>3.646555319041828e-08</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.622358495039903e-08</v>
+        <v>3.632067979758835e-08</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.609557255975038e-08</v>
+        <v>3.620368111292911e-08</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.599541888467133e-08</v>
+        <v>3.611236379593647e-08</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.592334378464762e-08</v>
+        <v>3.60470784626382e-08</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.587956944827625e-08</v>
+        <v>3.600817818733194e-08</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.586431806415411e-08</v>
+        <v>3.599601604431521e-08</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.587781182087826e-08</v>
+        <v>3.601094510788568e-08</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.592027290704562e-08</v>
+        <v>3.605331845234091e-08</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.599192351125323e-08</v>
+        <v>3.612348915197857e-08</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.609298582209806e-08</v>
+        <v>3.622181028109626e-08</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.622368202817697e-08</v>
+        <v>3.634863491399144e-08</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.638423431808716e-08</v>
+        <v>3.650431612496197e-08</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.657486488042533e-08</v>
+        <v>3.668920698830515e-08</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.679579590378881e-08</v>
+        <v>3.690366057831895e-08</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.70472495767744e-08</v>
+        <v>3.714802996930081e-08</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.732944808797882e-08</v>
+        <v>3.742266823554806e-08</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.764261362599958e-08</v>
+        <v>3.772792845135883e-08</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.798696837943341e-08</v>
+        <v>3.806416369103049e-08</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.836273453687693e-08</v>
+        <v>3.843172702886028e-08</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.87701342869278e-08</v>
+        <v>3.883097153914649e-08</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.920938981818269e-08</v>
+        <v>3.926225029618642e-08</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.968072331923813e-08</v>
+        <v>3.972591637427721e-08</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>4.018435697869196e-08</v>
+        <v>4.022232284771734e-08</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>4.072051298514023e-08</v>
+        <v>4.075182279080351e-08</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>4.12894135271809e-08</v>
+        <v>4.131476927783426e-08</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>4.189128079341049e-08</v>
+        <v>4.191151538310677e-08</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>4.25263369724254e-08</v>
+        <v>4.254241418091805e-08</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>4.319480425282373e-08</v>
+        <v>4.320781874556683e-08</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.389690482320194e-08</v>
+        <v>4.39080821513502e-08</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>4.463286087215629e-08</v>
+        <v>4.464355747256505e-08</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.540289458828511e-08</v>
+        <v>4.541459778351034e-08</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>4.620722816018473e-08</v>
+        <v>4.622155615848301e-08</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>4.704608377645137e-08</v>
+        <v>4.706478567177992e-08</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>4.791968362568351e-08</v>
+        <v>4.794463939770018e-08</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>4.882824989647655e-08</v>
+        <v>4.886147041053978e-08</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>4.977200477742914e-08</v>
+        <v>4.981563178459804e-08</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>5.075497008946306e-08</v>
+        <v>5.081117770442961e-08</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>5.17991211275335e-08</v>
+        <v>5.186965030637366e-08</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>5.293173074021318e-08</v>
+        <v>5.301775191816549e-08</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>5.418007254391729e-08</v>
+        <v>5.42821856154734e-08</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.557142015505667e-08</v>
+        <v>5.568965447396124e-08</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>5.713304719004699e-08</v>
+        <v>5.726686156929774e-08</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>5.889222726530021e-08</v>
+        <v>5.904050997714789e-08</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>6.087623399722758e-08</v>
+        <v>6.103730277317598e-08</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>6.311234100224585e-08</v>
+        <v>6.328394303305183e-08</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>6.56278218967665e-08</v>
+        <v>6.580713383243991e-08</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>6.844995029719998e-08</v>
+        <v>6.863357824700378e-08</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>7.160427828984532e-08</v>
+        <v>7.178827947183328e-08</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>7.508560725992846e-08</v>
+        <v>7.52658767141712e-08</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>7.886222200240389e-08</v>
+        <v>7.903482605708266e-08</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>8.29015384343585e-08</v>
+        <v>8.306272563255879e-08</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>8.717097247286522e-08</v>
+        <v>8.731717357257687e-08</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>9.163794003501183e-08</v>
+        <v>9.176576800912895e-08</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>9.626985703787471e-08</v>
+        <v>9.637610707419571e-08</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.010341393985296e-07</v>
+        <v>1.011157888997573e-07</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.058982030340653e-07</v>
+        <v>1.059524116178065e-07</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.108294638615574e-07</v>
+        <v>1.108535733603237e-07</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.157953377980819e-07</v>
+        <v>1.157868722592888e-07</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.207632407607276e-07</v>
+        <v>1.207199064466951e-07</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.257005886665702e-07</v>
+        <v>1.256202740545225e-07</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.305747974326854e-07</v>
+        <v>1.304555732147512e-07</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.353532829761622e-07</v>
+        <v>1.351934020593742e-07</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.400379016240624e-07</v>
+        <v>1.398359739730281e-07</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.447894049350257e-07</v>
+        <v>1.445452042309237e-07</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.498143378663507e-07</v>
+        <v>1.495290339850032e-07</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.55319249649782e-07</v>
+        <v>1.549954086833541e-07</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.615106895170791e-07</v>
+        <v>1.611522737740788e-07</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.685952066999868e-07</v>
+        <v>1.682075747052656e-07</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.767793504302471e-07</v>
+        <v>1.763692569249994e-07</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.862696699396242e-07</v>
+        <v>1.858452658813875e-07</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.972725826847453e-07</v>
+        <v>1.968434100769793e-07</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.099536855009061e-07</v>
+        <v>2.095290757264872e-07</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.24380170252369e-07</v>
+        <v>2.239653829871817e-07</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.406046986631202e-07</v>
+        <v>2.402003517612921e-07</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.586799324571397e-07</v>
+        <v>2.582820019510409e-07</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.78658533358457e-07</v>
+        <v>2.782583534587009e-07</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>3.005931630910536e-07</v>
+        <v>3.001774261864962e-07</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>3.245364833789042e-07</v>
+        <v>3.240872400366445e-07</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>3.505411559460489e-07</v>
+        <v>3.500358149114287e-07</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>3.786355512818039e-07</v>
+        <v>3.780477368232439e-07</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>4.085516251508373e-07</v>
+        <v>4.078616388431683e-07</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>4.398232185319254e-07</v>
+        <v>4.390250316012039e-07</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>4.719805471852763e-07</v>
+        <v>4.71081928458741e-07</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>5.04553826871185e-07</v>
+        <v>5.03576342777257e-07</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>5.370732733498601e-07</v>
+        <v>5.360522879181427e-07</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>5.690691023815103e-07</v>
+        <v>5.680537772427892e-07</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>6.000715297264306e-07</v>
+        <v>5.991248241126737e-07</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>6.296107711448292e-07</v>
+        <v>6.288094418891866e-07</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>6.571911255326132e-07</v>
+        <v>6.566237424461505e-07</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>6.819479343422747e-07</v>
+        <v>6.816866267370795e-07</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>7.027418502260752e-07</v>
+        <v>7.028212722029763e-07</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>7.184269786876583e-07</v>
+        <v>7.188438077783657e-07</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>7.278574252306089e-07</v>
+        <v>7.285703623977131e-07</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>7.298872953585337e-07</v>
+        <v>7.308170649955061e-07</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>7.233712848762359e-07</v>
+        <v>7.244006464872611e-07</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>7.081218556909626e-07</v>
+        <v>7.091145544665093e-07</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>6.868568863773213e-07</v>
+        <v>6.877151404219526e-07</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>6.628431174439528e-07</v>
+        <v>6.635184776820307e-07</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>6.393472891550895e-07</v>
+        <v>6.398406393272853e-07</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>6.189730921569922e-07</v>
+        <v>6.193251831283885e-07</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>6.017288627911453e-07</v>
+        <v>6.019832612905901e-07</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>5.869880065755467e-07</v>
+        <v>5.871820309274766e-07</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>5.741239290281364e-07</v>
+        <v>5.74288649152576e-07</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>5.625100356668944e-07</v>
+        <v>5.626702730794565e-07</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>5.515197320097869e-07</v>
+        <v>5.516940598216723e-07</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>5.405264235747891e-07</v>
+        <v>5.407271664927872e-07</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>5.289035158798481e-07</v>
+        <v>5.29136750206336e-07</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>5.160244144429519e-07</v>
+        <v>5.162899680758949e-07</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>5.013715507192915e-07</v>
+        <v>5.01663758633009e-07</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>4.850551391220668e-07</v>
+        <v>4.853671935059446e-07</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>4.674096347237637e-07</v>
+        <v>4.67735138828148e-07</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>4.48769772457831e-07</v>
+        <v>4.491027425332886e-07</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>4.294702872577649e-07</v>
+        <v>4.298051525550837e-07</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>4.098459140570636e-07</v>
+        <v>4.101775168272524e-07</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>3.902313877891726e-07</v>
+        <v>3.905549832834604e-07</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>3.709614433875899e-07</v>
+        <v>3.712726998574271e-07</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.523691674345113e-07</v>
+        <v>3.526641687155623e-07</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.346278240193784e-07</v>
+        <v>3.349033200729756e-07</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>3.176195918102276e-07</v>
+        <v>3.178734550356402e-07</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>3.011957522116176e-07</v>
+        <v>3.014270258813204e-07</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>2.852075866281535e-07</v>
+        <v>2.854164848878264e-07</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.695063764644385e-07</v>
+        <v>2.696942843329667e-07</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.539434031250337e-07</v>
+        <v>2.541128764945079e-07</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>2.383699480145429e-07</v>
+        <v>2.385247136502587e-07</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>2.226372925375696e-07</v>
+        <v>2.227822480780279e-07</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>2.06604712695591e-07</v>
+        <v>2.067458550529446e-07</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.903210416499142e-07</v>
+        <v>1.904637693373765e-07</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.740278808503673e-07</v>
+        <v>1.741752675507764e-07</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.579754686262084e-07</v>
+        <v>1.581281858401947e-07</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.424140433067533e-07</v>
+        <v>1.425703603527396e-07</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.275938432212612e-07</v>
+        <v>1.277496272354629e-07</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.137651066990337e-07</v>
+        <v>1.139138226354588e-07</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.011780720693691e-07</v>
+        <v>1.013107826998178e-07</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>9.008297766153191e-08</v>
+        <v>9.018834357559714e-08</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>8.07124820447268e-08</v>
+        <v>8.077817109090133e-08</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>7.322331310886906e-08</v>
+        <v>7.324208806696729e-08</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>6.775170298985068e-08</v>
+        <v>6.77230647992475e-08</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>6.443555494508455e-08</v>
+        <v>6.436575713637179e-08</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>6.352065884318618e-08</v>
+        <v>6.342363741355715e-08</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>6.532313805607707e-08</v>
+        <v>6.522042548095005e-08</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>6.952555187109535e-08</v>
+        <v>6.943638752402503e-08</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>7.555481407385848e-08</v>
+        <v>7.549219592398182e-08</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>8.283722029785524e-08</v>
+        <v>8.280789536287586e-08</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>9.079529091420171e-08</v>
+        <v>9.079985743682551e-08</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>9.876432373808809e-08</v>
+        <v>9.879959184045654e-08</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.059921759609089e-07</v>
+        <v>1.060535342009803e-07</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.117228858979922e-07</v>
+        <v>1.118044046263687e-07</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.152004918646881e-07</v>
+        <v>1.152949232246159e-07</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.156696157027916e-07</v>
+        <v>1.157683930492729e-07</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.129813569820133e-07</v>
+        <v>1.130739911461068e-07</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.087401736937693e-07</v>
+        <v>1.088125075515161e-07</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.048655294211714e-07</v>
+        <v>1.048994243122176e-07</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.031745710050403e-07</v>
+        <v>1.031486328869334e-07</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.035647755411705e-07</v>
+        <v>1.03467979117749e-07</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.042278053909851e-07</v>
+        <v>1.040716004858893e-07</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.032959643023522e-07</v>
+        <v>1.031146971342842e-07</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>9.932385082894633e-08</v>
+        <v>9.916851033955717e-08</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>9.265371473621303e-08</v>
+        <v>9.256545965134639e-08</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>8.410075493841049e-08</v>
+        <v>8.410390996681915e-08</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>7.448017336036065e-08</v>
+        <v>7.45822291491238e-08</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>6.460717192688922e-08</v>
+        <v>6.479878506141245e-08</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>5.529689773174133e-08</v>
+        <v>5.555189214227073e-08</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>4.716789885812908e-08</v>
+        <v>4.744830893326032e-08</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>4.020039174418411e-08</v>
+        <v>4.047283667035512e-08</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>3.4245265237903e-08</v>
+        <v>3.448426648158777e-08</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.91534081873015e-08</v>
+        <v>2.934138949501008e-08</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.47757094403923e-08</v>
+        <v>2.490299683867087e-08</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>2.096305784517661e-08</v>
+        <v>2.102787964060732e-08</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.75663456637799e-08</v>
+        <v>1.757483244331268e-08</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.459562229707927e-08</v>
+        <v>1.456181435477291e-08</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>1.24169769447706e-08</v>
+        <v>1.235979217977837e-08</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>1.095373267395991e-08</v>
+        <v>1.088924541535153e-08</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.004031325883695e-08</v>
+        <v>9.980563438043264e-09</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>9.511142473589346e-09</v>
+        <v>9.464135624402332e-09</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>9.200644092407529e-09</v>
+        <v>9.170351350980274e-09</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>8.966043457234175e-09</v>
+        <v>8.952936177495058e-09</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>8.772672826730113e-09</v>
+        <v>8.776257301884175e-09</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>8.617871137019732e-09</v>
+        <v>8.637439041944197e-09</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>8.498982237564186e-09</v>
+        <v>8.53361074400875e-09</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>8.413349977825073e-09</v>
+        <v>8.461901754411851e-09</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>8.358318207263865e-09</v>
+        <v>8.419441419487402e-09</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>8.331230775341906e-09</v>
+        <v>8.403359085569197e-09</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>8.329431531520695e-09</v>
+        <v>8.410784098991166e-09</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>8.350264325261646e-09</v>
+        <v>8.43884580608715e-09</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>8.391073006026238e-09</v>
+        <v>8.484673553191076e-09</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>8.449201423275838e-09</v>
+        <v>8.545396686636742e-09</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>8.521994385659717e-09</v>
+        <v>8.618146340856356e-09</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>8.60698102079556e-09</v>
+        <v>8.700397253950555e-09</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>8.702092722405374e-09</v>
+        <v>8.790374060301787e-09</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>8.805313949287333e-09</v>
+        <v>8.886400317126882e-09</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>8.914629160239357e-09</v>
+        <v>8.986799581642432e-09</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>9.028022814059353e-09</v>
+        <v>9.089895411065022e-09</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>9.143479369545528e-09</v>
+        <v>9.194011362611501e-09</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>9.258983285495787e-09</v>
+        <v>9.297470993498455e-09</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>9.372519020708034e-09</v>
+        <v>9.398597860942465e-09</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>9.482071033980475e-09</v>
+        <v>9.495715522160383e-09</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>9.585623784110931e-09</v>
+        <v>9.587147534368712e-09</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>9.681161729897586e-09</v>
+        <v>9.671217454784289e-09</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>9.766669330138352e-09</v>
+        <v>9.746248840623697e-09</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>9.840131043631171e-09</v>
+        <v>9.810565249103558e-09</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>9.899531329174181e-09</v>
+        <v>9.862490237440658e-09</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>9.942854645565315e-09</v>
+        <v>9.900347362851604e-09</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>9.968085451602565e-09</v>
+        <v>9.922460182553057e-09</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>9.973208206083986e-09</v>
+        <v>9.927152253761736e-09</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>9.956207367807543e-09</v>
+        <v>9.912747133694272e-09</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>9.917195882949677e-09</v>
+        <v>9.879538378226035e-09</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>9.866104172934709e-09</v>
+        <v>9.836906002126199e-09</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>9.815691309320475e-09</v>
+        <v>9.796848046949228e-09</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>9.778716626313327e-09</v>
+        <v>9.771362797341137e-09</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>9.76793945811977e-09</v>
+        <v>9.772448537948059e-09</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>9.796119138946253e-09</v>
+        <v>9.81210355341608e-09</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>9.876015002999135e-09</v>
+        <v>9.902326128391187e-09</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.0020386384485e-08</v>
+        <v>1.005511454751963e-08</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.024199261761002e-08</v>
+        <v>1.028246709544719e-08</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.055359303658104e-08</v>
+        <v>1.059638205682036e-08</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.096794697560435e-08</v>
+        <v>1.100885771628508e-08</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.149781376888586e-08</v>
+        <v>1.153189235848689e-08</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.215595275063299e-08</v>
+        <v>1.217748426807284e-08</v>
       </c>
     </row>
   </sheetData>
